--- a/Projetos/Interface Grafica Arduino - IGA/planejamento - IGA.xlsx
+++ b/Projetos/Interface Grafica Arduino - IGA/planejamento - IGA.xlsx
@@ -85,9 +85,6 @@
 Definir datas e descrição dos projetos</t>
   </si>
   <si>
-    <t>Escolher linguagem e ferramentas (IDE, bibliotecas)</t>
-  </si>
-  <si>
     <t>Criar um esboço da interface com os elementos gráficos essenciais</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   <si>
     <t>Link do repositório Github com os projetos
 https://github.com/Danntav/GEEC</t>
+  </si>
+  <si>
+    <t>Escolher linguagem e ferramentas (IDE, bibliotecas, frameworks...)</t>
   </si>
 </sst>
 </file>
@@ -596,13 +596,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>176579</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>386129</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -660,13 +660,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>176579</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>367079</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -724,13 +724,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>176579</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>367079</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
@@ -788,13 +788,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>186104</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>386129</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -852,13 +852,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>176579</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>367079</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
@@ -916,13 +916,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>186104</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>376604</xdr:colOff>
+          <xdr:colOff>381000</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
@@ -980,13 +980,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>176579</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>367079</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -1044,13 +1044,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>186104</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>376604</xdr:colOff>
+          <xdr:colOff>381000</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
@@ -1108,13 +1108,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>176579</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>424229</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -1373,8 +1373,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="26"/>
     </row>
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F4" s="26"/>
     </row>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="26"/>
     </row>
@@ -1494,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="26"/>
     </row>
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="26"/>
     </row>
@@ -1530,7 +1530,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -1539,7 +1539,7 @@
         <v>45664</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C9" s="21" t="b">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="26"/>
     </row>

--- a/Projetos/Interface Grafica Arduino - IGA/planejamento - IGA.xlsx
+++ b/Projetos/Interface Grafica Arduino - IGA/planejamento - IGA.xlsx
@@ -1373,8 +1373,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7" s="21" t="b">
         <v>0</v>
